--- a/results/I3_N5_M2_T45_C200_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.3385864929803</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2639999389648438</v>
+        <v>0.0690000057220459</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360.7500000016634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.11537896020468</v>
+        <v>31.60181147454995</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.51356748565469</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.25804892475682</v>
+        <v>33.75054662682649</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.27973517692068</v>
+        <v>36.23964284834943</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000003</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>130.7890000000554</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>82.84700000000704</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>205.9620000000215</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>230.1130000001087</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>205.9620000000377</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>230.1130000001287</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.962000000037669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>30.11300000012866</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,28 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
